--- a/StructureDefinition-ng-imm-encounter.xlsx
+++ b/StructureDefinition-ng-imm-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-03T11:54:34+01:00</t>
+    <t>2025-07-03T13:36:09+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ng-imm-encounter.xlsx
+++ b/StructureDefinition-ng-imm-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-03T13:36:09+01:00</t>
+    <t>2025-07-04T07:50:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -617,13 +617,13 @@
 </t>
   </si>
   <si>
-    <t>Type of encounter (e.g., ambulatory, home visit)</t>
+    <t>Type of encounter (e.g. Facility encounter, Outreach, or Home visit)</t>
   </si>
   <si>
     <t>Concepts representing classification of patient encounter such as ambulatory (outpatient), inpatient, emergency, home health or others due to local variations.</t>
   </si>
   <si>
-    <t>http://nphcda.gov.ng/ig/fhir/ValueSet/ng-session-type</t>
+    <t>https://nphcda.gov.ng/immunizationIG/ValueSet/nigeria-session-type</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=LIST].code</t>
@@ -1822,7 +1822,7 @@
     <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="62.3046875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="48.953125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="55.7734375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="16.2578125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ng-imm-encounter.xlsx
+++ b/StructureDefinition-ng-imm-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-04T07:50:29+01:00</t>
+    <t>2025-07-04T16:58:52+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ng-imm-encounter.xlsx
+++ b/StructureDefinition-ng-imm-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-04T16:58:52+01:00</t>
+    <t>2025-07-04T18:56:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ng-imm-encounter.xlsx
+++ b/StructureDefinition-ng-imm-encounter.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-04T18:56:28+01:00</t>
+    <t>2025-07-04T19:33:02+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ng-imm-encounter.xlsx
+++ b/StructureDefinition-ng-imm-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-04T19:33:02+01:00</t>
+    <t>2025-07-17T18:57:38+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ng-imm-encounter.xlsx
+++ b/StructureDefinition-ng-imm-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T18:57:38+01:00</t>
+    <t>2025-08-03T02:35:31+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ng-imm-encounter.xlsx
+++ b/StructureDefinition-ng-imm-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-03T02:35:31+01:00</t>
+    <t>2025-08-03T02:50:50+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
